--- a/va_facility_data_2025-02-20/Glen Burnie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glen%20Burnie%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Glen Burnie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Glen%20Burnie%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc764f3b166cf47589da2776ea57f4d1a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0eaf49941cab4f05ac524d83366e9824"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8578b7c370c44e0088adbda65ee07a16"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9c7e2a663cb44af5b973636d3369e180"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R205cad09bd9e45fb855c54a1190219c3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R09fd8565837944c6919ec64f815c144c"/>
   </x:sheets>
 </x:workbook>
 </file>
